--- a/data analysis.xlsx
+++ b/data analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tester Index</t>
   </si>
@@ -29,15 +29,34 @@
   <si>
     <t>Time Taken without Bot</t>
   </si>
+  <si>
+    <t>Avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,14 +79,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -120,31 +148,31 @@
             <c:numRef>
               <c:f>Sheet1!$G$4:$G$11</c:f>
               <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
+                <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.438194444444444</c:v>
+                  <c:v>0.00730324074074074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.291666666666667</c:v>
+                  <c:v>0.00486111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.144444444444444</c:v>
+                  <c:v>0.00240740740740741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.147916666666667</c:v>
+                  <c:v>0.00246527777777778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.194444444444444</c:v>
+                  <c:v>0.00324074074074074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.201388888888889</c:v>
+                  <c:v>0.00335648148148148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13125</c:v>
+                  <c:v>0.0021875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.101388888888889</c:v>
+                  <c:v>0.00168981481481481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -174,31 +202,31 @@
             <c:numRef>
               <c:f>Sheet1!$H$4:$H$11</c:f>
               <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
+                <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.306944444444444</c:v>
+                  <c:v>0.00511574074074074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.372222222222222</c:v>
+                  <c:v>0.0062037037037037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.222222222222222</c:v>
+                  <c:v>0.0037037037037037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20625</c:v>
+                  <c:v>0.0034375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.146527777777778</c:v>
+                  <c:v>0.00244212962962963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.101388888888889</c:v>
+                  <c:v>0.00168981481481481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.102083333333333</c:v>
+                  <c:v>0.00170138888888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.120833333333333</c:v>
+                  <c:v>0.00201388888888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -213,11 +241,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2098208440"/>
-        <c:axId val="2098209208"/>
+        <c:axId val="2101360824"/>
+        <c:axId val="2098988056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2098208440"/>
+        <c:axId val="2101360824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -226,7 +254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098209208"/>
+        <c:crossAx val="2098988056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -234,18 +262,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098209208"/>
+        <c:axId val="2098988056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098208440"/>
+        <c:crossAx val="2101360824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -271,20 +299,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -624,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:H11"/>
+  <dimension ref="F3:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -651,92 +679,106 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.4381944444444445</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.30694444444444441</v>
+      <c r="G4" s="2">
+        <v>7.3032407407407412E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5.115740740740741E-3</v>
       </c>
     </row>
     <row r="5" spans="6:8">
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.37222222222222223</v>
+      <c r="G5" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.2037037037037043E-3</v>
       </c>
     </row>
     <row r="6" spans="6:8">
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.14444444444444446</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.22222222222222221</v>
+      <c r="G6" s="2">
+        <v>2.4074074074074076E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.7037037037037034E-3</v>
       </c>
     </row>
     <row r="7" spans="6:8">
       <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.14791666666666667</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.20625000000000002</v>
+      <c r="G7" s="2">
+        <v>2.4652777777777776E-3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.4375E-3</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="1">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.14652777777777778</v>
+      <c r="G8" s="2">
+        <v>3.2407407407407406E-3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.4421296296296296E-3</v>
       </c>
     </row>
     <row r="9" spans="6:8">
       <c r="F9">
         <v>6</v>
       </c>
-      <c r="G9" s="1">
-        <v>0.20138888888888887</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.1013888888888889</v>
+      <c r="G9" s="2">
+        <v>3.3564814814814811E-3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.689814814814815E-3</v>
       </c>
     </row>
     <row r="10" spans="6:8">
       <c r="F10">
         <v>7</v>
       </c>
-      <c r="G10" s="1">
-        <v>0.13125000000000001</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.10208333333333335</v>
+      <c r="G10" s="2">
+        <v>2.1874999999999998E-3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.7013888888888892E-3</v>
       </c>
     </row>
     <row r="11" spans="6:8">
       <c r="F11">
         <v>8</v>
       </c>
-      <c r="G11" s="1">
-        <v>0.1013888888888889</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.12083333333333333</v>
+      <c r="G11" s="2">
+        <v>1.689814814814815E-3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.0138888888888888E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <f>(SUM(G4:G11))/8</f>
+        <v>3.4389467592592592E-3</v>
+      </c>
+      <c r="H12">
+        <f>(SUM(H4:H11))/8</f>
+        <v>3.2884837962962963E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
